--- a/planning/prototype_4a.xlsx
+++ b/planning/prototype_4a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissamorales/Desktop/4a/planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissamorales/Desktop/4a_bien/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A3AFB6-7DCF-4D43-A9EC-C83780E538ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B6CCD-A525-A448-9BBC-AA654E85CF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15000" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15000" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loc_Methods" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -439,12 +439,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,6 +453,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,40 +1224,40 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25">
         <f>SUM(E2:E14)</f>
         <v>260.03333333333336</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="23">
         <f>SUM(F2:F14)</f>
         <v>36.419727884695909</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <f>SUM(G2:G14)</f>
         <v>5.2350339604157359</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="27">
         <f>E15/$A$14</f>
         <v>20.002564102564104</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="27">
         <f>F15/$A$14</f>
         <v>2.801517529591993</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="26">
         <f>G15/$A$14</f>
         <v>0.40269492003197971</v>
       </c>
@@ -1392,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1797,38 +1797,38 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30">
         <f>SUM(D2:D17)</f>
         <v>187</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="30">
         <f>SUM(E2:E17)</f>
         <v>38.708912869664324</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="30">
         <f>SUM(F2:F17)</f>
         <v>1.2304596827677758</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30">
         <f>D18/$A$17</f>
         <v>11.6875</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="30">
         <f>E18/A17</f>
         <v>2.4193070543540203</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="30">
         <f>F18/A17</f>
         <v>7.690373017298599E-2</v>
       </c>
